--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lima/github/SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D3B2E-C540-C844-84D1-8D5DFFD046FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9F981D-90F3-684B-82AA-7F14B0279E06}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6340" yWindow="3360" windowWidth="28040" windowHeight="16340" xr2:uid="{A4B21EC3-B71B-8344-AD33-05515ED94290}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>534  Game Play Analysis III</t>
   </si>
@@ -117,12 +117,21 @@
   <si>
     <t>Solution 2</t>
   </si>
+  <si>
+    <t>1045. Customers Who Bought All Products</t>
+  </si>
+  <si>
+    <t>cross join</t>
+  </si>
+  <si>
+    <t>WHERE (customer_id,product_key) NOT IN (SELECT customer_id,product_key FROM Customer)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +161,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -186,6 +202,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D59EF-AAA5-764A-99CC-91C36F7BDB6F}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -534,7 +551,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="90">
+    <row r="3" spans="1:6" ht="46">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -548,7 +565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="46">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -560,57 +577,69 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="50">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" ht="90">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="50">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="134">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:6" ht="134">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:6" ht="25">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="409.6">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="409.6">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="258">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:6" ht="258">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
